--- a/Commits.xlsx
+++ b/Commits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jose Angel\Universidad\Tercer Semestre\Algoritmos y Estructura de Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\Proyecto1-DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4609B7C9-5B60-481A-8681-8064D40590F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44E7788-797D-4993-99D9-07878442F4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B32BA9DA-33F7-4C76-9A9A-2496647C6D10}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B32BA9DA-33F7-4C76-9A9A-2496647C6D10}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Jose Angel Morales</t>
   </si>
@@ -55,6 +55,75 @@
   </si>
   <si>
     <t>Calculadora</t>
+  </si>
+  <si>
+    <t>Explicación</t>
+  </si>
+  <si>
+    <t>Unit Tests</t>
+  </si>
+  <si>
+    <t>Atom</t>
+  </si>
+  <si>
+    <t>Javadocs</t>
+  </si>
+  <si>
+    <t>4ec54b556b0546ab5e831c88d6084daf550326ea</t>
+  </si>
+  <si>
+    <t>12df10cb5efee9ca84ab00291659e1fb34ff7342</t>
+  </si>
+  <si>
+    <t>e4a5e0d0004f0c97d45942d9ab431548d49077bf</t>
+  </si>
+  <si>
+    <t>430274118dca0ee7d261698b7280f4a3198db544</t>
+  </si>
+  <si>
+    <t>d4563ff1ad123245c7d670deb8b3c4fd8b07095d</t>
+  </si>
+  <si>
+    <t>174ab130bc29ec9b18d6931281a99865263151bb</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Defun</t>
+  </si>
+  <si>
+    <t>cf2c501dd1b00332b708b08c783a679f9c6aa63f</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>ca1fa587d71734744c5ddbcdf2b15b0ce988a98c</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>Repositorio</t>
+  </si>
+  <si>
+    <t>DriverProgram</t>
+  </si>
+  <si>
+    <t>f6449007591dc68dfd2ffc64034d43836167417c</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>6aa34077e169aa3459b782d915898d70505b33f3</t>
+  </si>
+  <si>
+    <t>c9c5ad159b4b6864159bcf485bba3bb751ff4670</t>
+  </si>
+  <si>
+    <t>6d878f9086c2e7c0d70bc237f9d9220de5246577</t>
   </si>
 </sst>
 </file>
@@ -78,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -221,11 +290,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -236,6 +327,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,25 +644,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902F2E4F-BBAF-4E79-900A-A703BB74839B}">
-  <dimension ref="C3:J10"/>
+  <dimension ref="A3:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="10" max="10" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -582,8 +676,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
@@ -609,57 +703,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="6"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="6"/>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="6"/>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
